--- a/NO_ARQ.xlsx
+++ b/NO_ARQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x1\Desktop\NIDUC_PROJEKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028BEE10-CE8C-4EF5-BB55-339A8FEAED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1B57A0-3EC5-4E14-8CF0-42A8EE04C621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{348880A7-7776-408D-9719-C1CAC910194E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{348880A7-7776-408D-9719-C1CAC910194E}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39028,13 +39028,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C03335-E10B-4402-89D7-A0997CE9B28F}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="24.453125" customWidth="1"/>
     <col min="3" max="3" width="30.1796875" customWidth="1"/>
     <col min="4" max="4" width="26.6328125" customWidth="1"/>
@@ -40502,7 +40502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401250B-3FC4-4232-88BD-302061764381}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
